--- a/01-FatSheepCrisis/Assets/Excel/EnemyConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/EnemyConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Project\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854824C-8FE3-4A45-98C1-435BE218F91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED18C56-B173-4F2B-8534-553E1B544BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,7 +55,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蝙蝠</t>
+    <t>小蝙蝠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蝙蝠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小骷髅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,9 +453,101 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1.75</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>1.35</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
